--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Semi_Final/Tata Consultancy Services Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Semi_Final/Tata Consultancy Services Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Tata Consultancy Services(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Tata Consultancy Services(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Tata Consultancy Services(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>48.01</v>
-      </c>
-      <c r="C2">
-        <v>3273.04</v>
       </c>
       <c r="D2">
         <v>3273.04</v>
       </c>
       <c r="E2">
+        <v>3273.04</v>
+      </c>
+      <c r="F2">
         <v>3321.05</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>268.6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1352.87</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4752.8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>908.16</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1028.44</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2437.69</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2315.11</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4752.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>48.93</v>
-      </c>
-      <c r="C3">
-        <v>5560.4</v>
       </c>
       <c r="D3">
         <v>5560.4</v>
       </c>
       <c r="E3">
+        <v>5560.4</v>
+      </c>
+      <c r="F3">
         <v>5609.33</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>434.81</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1738.96</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>7424.61</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1157.07</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1449.78</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3441.76</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3982.85</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>7424.61</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>97.86</v>
-      </c>
-      <c r="C4">
-        <v>7961.13</v>
       </c>
       <c r="D4">
         <v>7961.13</v>
       </c>
       <c r="E4">
+        <v>7961.13</v>
+      </c>
+      <c r="F4">
         <v>8058.99</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>821.37</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2636.66</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10765.24</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1447.9</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2218.46</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5508.11</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5257.13</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10765.24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>197.86</v>
-      </c>
-      <c r="C5">
-        <v>10806.95</v>
       </c>
       <c r="D5">
         <v>10806.95</v>
       </c>
       <c r="E5">
+        <v>10806.95</v>
+      </c>
+      <c r="F5">
         <v>11004.81</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1164.81</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3600.89</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>14736.06</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1927.82</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2830.27</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>7406.49</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7329.57</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>14736.06</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>197.86</v>
-      </c>
-      <c r="C6">
-        <v>13248.39</v>
       </c>
       <c r="D6">
         <v>13248.39</v>
       </c>
       <c r="E6">
+        <v>13248.39</v>
+      </c>
+      <c r="F6">
         <v>13446.25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2188.56</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4952.81</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>18541.03</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2656.37</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3354.21</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9293.889999999999</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9247.139999999999</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>18541.03</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>295.72</v>
-      </c>
-      <c r="C7">
-        <v>14820.9</v>
       </c>
       <c r="D7">
         <v>14820.9</v>
       </c>
       <c r="E7">
+        <v>14820.9</v>
+      </c>
+      <c r="F7">
         <v>15116.62</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1284.37</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7239.25</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>22431.71</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2747.81</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>3701.24</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11647.76</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10783.95</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>22431.71</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>295.72</v>
-      </c>
-      <c r="C8">
-        <v>19283.77</v>
       </c>
       <c r="D8">
         <v>19283.77</v>
       </c>
       <c r="E8">
+        <v>19283.77</v>
+      </c>
+      <c r="F8">
         <v>19579.49</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1584.27</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6151.59</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>26042.81</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3363.78</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4495.04</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>15472.33</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>10570.48</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>26042.81</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>295.72</v>
-      </c>
-      <c r="C9">
-        <v>24560.91</v>
       </c>
       <c r="D9">
         <v>24560.91</v>
       </c>
       <c r="E9">
+        <v>24560.91</v>
+      </c>
+      <c r="F9">
         <v>24856.63</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1598.56</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8835.48</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>34258.81</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4012.16</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>5463.44</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>17723.02</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>16535.79</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>34258.81</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>295.72</v>
-      </c>
-      <c r="C10">
-        <v>32266.53</v>
       </c>
       <c r="D10">
         <v>32266.53</v>
       </c>
       <c r="E10">
+        <v>32266.53</v>
+      </c>
+      <c r="F10">
         <v>32562.25</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2172.71</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9676.91</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>43012.14</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5059.48</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6868.13</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>19503.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>23508.64</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>43012.14</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>195.87</v>
-      </c>
-      <c r="C11">
-        <v>43856.01</v>
       </c>
       <c r="D11">
         <v>43856.01</v>
       </c>
       <c r="E11">
+        <v>43856.01</v>
+      </c>
+      <c r="F11">
         <v>44051.88</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2460.32</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12265.7</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>57604.19</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5887.09</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>8976.719999999999</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>22769.38</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>34834.81</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>57604.19</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>195.87</v>
-      </c>
-      <c r="C12">
-        <v>45220.57</v>
       </c>
       <c r="D12">
         <v>45220.57</v>
       </c>
       <c r="E12">
+        <v>45220.57</v>
+      </c>
+      <c r="F12">
         <v>45416.44</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2491.47</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>16463.63</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>63065.3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7964.88</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10703.23</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>22635.16</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>40430.14</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>63065.3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>197</v>
-      </c>
-      <c r="C13">
-        <v>64816</v>
       </c>
       <c r="D13">
         <v>64816</v>
       </c>
       <c r="E13">
+        <v>64816</v>
+      </c>
+      <c r="F13">
         <v>65013</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5711</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11309</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>77417</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9056</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10720</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>24040</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>53377</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>77417</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>197</v>
-      </c>
-      <c r="C14">
-        <v>77825</v>
       </c>
       <c r="D14">
         <v>77825</v>
       </c>
       <c r="E14">
+        <v>77825</v>
+      </c>
+      <c r="F14">
         <v>78022</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6245</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10701</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>89758</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9214</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10708</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>21316</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>68442</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>89758</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>191</v>
-      </c>
-      <c r="C15">
-        <v>75675</v>
       </c>
       <c r="D15">
         <v>75675</v>
       </c>
       <c r="E15">
+        <v>75675</v>
+      </c>
+      <c r="F15">
         <v>75866</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8931</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>14058</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>91056</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9430</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10678</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>22834</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>68222</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>91056</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>375</v>
-      </c>
-      <c r="C16">
-        <v>78523</v>
       </c>
       <c r="D16">
         <v>78523</v>
       </c>
       <c r="E16">
+        <v>78523</v>
+      </c>
+      <c r="F16">
         <v>78898</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>11030</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>18896</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>99500</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9522</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>10495</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20468</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>79032</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>99500</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>375</v>
-      </c>
-      <c r="C17">
-        <v>73993</v>
       </c>
       <c r="D17">
         <v>73993</v>
       </c>
       <c r="E17">
+        <v>73993</v>
+      </c>
+      <c r="F17">
         <v>74368</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>15057</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>24026</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>104975</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>15883</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>16903</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>25781</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>79194</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>104975</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>370</v>
-      </c>
-      <c r="C18">
-        <v>74424</v>
       </c>
       <c r="D18">
         <v>74424</v>
       </c>
       <c r="E18">
+        <v>74424</v>
+      </c>
+      <c r="F18">
         <v>74794</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>19213</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>28525</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>109381</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>15697</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>16920</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>26221</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>83160</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>109381</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>366</v>
-      </c>
-      <c r="C19">
-        <v>76807</v>
       </c>
       <c r="D19">
         <v>76807</v>
       </c>
       <c r="E19">
+        <v>76807</v>
+      </c>
+      <c r="F19">
         <v>77173</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>26442</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>37901</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>121263</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15506</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>17670</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>27071</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>94192</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>121263</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>366</v>
-      </c>
-      <c r="C20">
-        <v>74172</v>
       </c>
       <c r="D20">
         <v>74172</v>
       </c>
       <c r="E20">
+        <v>74172</v>
+      </c>
+      <c r="F20">
         <v>74538</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>25277</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>39324</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>119827</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>14881</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>16793</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>27043</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>92784</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>119827</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>362</v>
-      </c>
-      <c r="C21">
-        <v>71758</v>
       </c>
       <c r="D21">
         <v>71758</v>
       </c>
       <c r="E21">
+        <v>71758</v>
+      </c>
+      <c r="F21">
         <v>72120</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>28391</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>43061</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>121148</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14490</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>16403</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>26230</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>94918</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>121148</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2308.65</v>
+      </c>
+      <c r="D2">
+        <v>1978.99</v>
+      </c>
+      <c r="E2">
+        <v>-2813.85</v>
+      </c>
+      <c r="F2">
+        <v>953.35</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>118.49</v>
+      </c>
+      <c r="I2">
+        <v>2.25</v>
+      </c>
+      <c r="J2">
+        <v>120.74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>3074.35</v>
+      </c>
+      <c r="D3">
+        <v>2344.42</v>
+      </c>
+      <c r="E3">
+        <v>-1464.97</v>
+      </c>
+      <c r="F3">
+        <v>-882.3</v>
+      </c>
+      <c r="G3">
+        <v>2.25</v>
+      </c>
+      <c r="H3">
+        <v>-5.1</v>
+      </c>
+      <c r="I3">
+        <v>176.27</v>
+      </c>
+      <c r="J3">
+        <v>171.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>4170.68</v>
+      </c>
+      <c r="D4">
+        <v>3551.26</v>
+      </c>
+      <c r="E4">
+        <v>-2076.42</v>
+      </c>
+      <c r="F4">
+        <v>-1075.35</v>
+      </c>
+      <c r="G4">
+        <v>13.52</v>
+      </c>
+      <c r="H4">
+        <v>385.97</v>
+      </c>
+      <c r="I4">
+        <v>171.17</v>
+      </c>
+      <c r="J4">
+        <v>557.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>5003.86</v>
+      </c>
+      <c r="D5">
+        <v>3827.91</v>
+      </c>
+      <c r="E5">
+        <v>-2404.9</v>
+      </c>
+      <c r="F5">
+        <v>-1424.77</v>
+      </c>
+      <c r="G5">
+        <v>27.86</v>
+      </c>
+      <c r="H5">
+        <v>-29.62</v>
+      </c>
+      <c r="I5">
+        <v>557.14</v>
+      </c>
+      <c r="J5">
+        <v>527.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>5139.68</v>
+      </c>
+      <c r="D6">
+        <v>4874.12</v>
+      </c>
+      <c r="E6">
+        <v>-3162.22</v>
+      </c>
+      <c r="F6">
+        <v>-1588.25</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>123.65</v>
+      </c>
+      <c r="I6">
+        <v>417</v>
+      </c>
+      <c r="J6">
+        <v>540.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>6370.38</v>
+      </c>
+      <c r="D7">
+        <v>6264.74</v>
+      </c>
+      <c r="E7">
+        <v>-4556.64</v>
+      </c>
+      <c r="F7">
+        <v>-1969.65</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>-261.55</v>
+      </c>
+      <c r="I7">
+        <v>554.83</v>
+      </c>
+      <c r="J7">
+        <v>293.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>8700.43</v>
+      </c>
+      <c r="D8">
+        <v>5719.88</v>
+      </c>
+      <c r="E8">
+        <v>-841.76</v>
+      </c>
+      <c r="F8">
+        <v>-4605.61</v>
+      </c>
+      <c r="G8">
+        <v>11.39</v>
+      </c>
+      <c r="H8">
+        <v>283.9</v>
+      </c>
+      <c r="I8">
+        <v>293.28</v>
+      </c>
+      <c r="J8">
+        <v>577.1799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>13366.33</v>
+      </c>
+      <c r="D9">
+        <v>3174.63</v>
+      </c>
+      <c r="E9">
+        <v>433.36</v>
+      </c>
+      <c r="F9">
+        <v>-3897.22</v>
+      </c>
+      <c r="G9">
+        <v>31.02</v>
+      </c>
+      <c r="H9">
+        <v>-258.21</v>
+      </c>
+      <c r="I9">
+        <v>577.1799999999999</v>
+      </c>
+      <c r="J9">
+        <v>318.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>15703.18</v>
+      </c>
+      <c r="D10">
+        <v>9156.950000000001</v>
+      </c>
+      <c r="E10">
+        <v>-3482.98</v>
+      </c>
+      <c r="F10">
+        <v>-5655.8</v>
+      </c>
+      <c r="G10">
+        <v>-16.68</v>
+      </c>
+      <c r="H10">
+        <v>4.88</v>
+      </c>
+      <c r="I10">
+        <v>318.97</v>
+      </c>
+      <c r="J10">
+        <v>323.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>23544.47</v>
+      </c>
+      <c r="D11">
+        <v>12941.93</v>
+      </c>
+      <c r="E11">
+        <v>-7189.32</v>
+      </c>
+      <c r="F11">
+        <v>-5684.32</v>
+      </c>
+      <c r="G11">
+        <v>43.66</v>
+      </c>
+      <c r="H11">
+        <v>114.52</v>
+      </c>
+      <c r="I11">
+        <v>323.85</v>
+      </c>
+      <c r="J11">
+        <v>438.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>24549.97</v>
+      </c>
+      <c r="D12">
+        <v>16319.89</v>
+      </c>
+      <c r="E12">
+        <v>611.01</v>
+      </c>
+      <c r="F12">
+        <v>-16914.2</v>
+      </c>
+      <c r="G12">
+        <v>-27.26</v>
+      </c>
+      <c r="H12">
+        <v>-8.59</v>
+      </c>
+      <c r="I12">
+        <v>438.37</v>
+      </c>
+      <c r="J12">
+        <v>429.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>29339</v>
+      </c>
+      <c r="D13">
+        <v>17986</v>
+      </c>
+      <c r="E13">
+        <v>-4518</v>
+      </c>
+      <c r="F13">
+        <v>-9586</v>
+      </c>
+      <c r="G13">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>3922</v>
+      </c>
+      <c r="I13">
+        <v>461</v>
+      </c>
+      <c r="J13">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>23653</v>
+      </c>
+      <c r="D14">
+        <v>23132</v>
+      </c>
+      <c r="E14">
+        <v>-15782</v>
+      </c>
+      <c r="F14">
+        <v>-10891</v>
+      </c>
+      <c r="G14">
+        <v>-52</v>
+      </c>
+      <c r="H14">
+        <v>-3593</v>
+      </c>
+      <c r="I14">
+        <v>4383</v>
+      </c>
+      <c r="J14">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>25241</v>
+      </c>
+      <c r="D15">
+        <v>21587</v>
+      </c>
+      <c r="E15">
+        <v>5634</v>
+      </c>
+      <c r="F15">
+        <v>-26827</v>
+      </c>
+      <c r="G15">
+        <v>94</v>
+      </c>
+      <c r="H15">
+        <v>488</v>
+      </c>
+      <c r="I15">
+        <v>790</v>
+      </c>
+      <c r="J15">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>30065</v>
+      </c>
+      <c r="D16">
+        <v>23998</v>
+      </c>
+      <c r="E16">
+        <v>5883</v>
+      </c>
+      <c r="F16">
+        <v>-27825</v>
+      </c>
+      <c r="G16">
+        <v>-7</v>
+      </c>
+      <c r="H16">
+        <v>2049</v>
+      </c>
+      <c r="I16">
+        <v>1278</v>
+      </c>
+      <c r="J16">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>33260</v>
+      </c>
+      <c r="D17">
+        <v>26603</v>
+      </c>
+      <c r="E17">
+        <v>12829</v>
+      </c>
+      <c r="F17">
+        <v>-39045</v>
+      </c>
+      <c r="G17">
+        <v>138</v>
+      </c>
+      <c r="H17">
+        <v>525</v>
+      </c>
+      <c r="I17">
+        <v>3327</v>
+      </c>
+      <c r="J17">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>30960</v>
+      </c>
+      <c r="D18">
+        <v>33822</v>
+      </c>
+      <c r="E18">
+        <v>-4576</v>
+      </c>
+      <c r="F18">
+        <v>-32023</v>
+      </c>
+      <c r="G18">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>-2740</v>
+      </c>
+      <c r="I18">
+        <v>3852</v>
+      </c>
+      <c r="J18">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>38187</v>
+      </c>
+      <c r="D19">
+        <v>36127</v>
+      </c>
+      <c r="E19">
+        <v>3642</v>
+      </c>
+      <c r="F19">
+        <v>-32797</v>
+      </c>
+      <c r="G19">
+        <v>113</v>
+      </c>
+      <c r="H19">
+        <v>7085</v>
+      </c>
+      <c r="I19">
+        <v>1112</v>
+      </c>
+      <c r="J19">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>39106</v>
+      </c>
+      <c r="D20">
+        <v>37029</v>
+      </c>
+      <c r="E20">
+        <v>3250</v>
+      </c>
+      <c r="F20">
+        <v>-47224</v>
+      </c>
+      <c r="G20">
+        <v>210</v>
+      </c>
+      <c r="H20">
+        <v>-6735</v>
+      </c>
+      <c r="I20">
+        <v>8197</v>
+      </c>
+      <c r="J20">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>2308.65</v>
-      </c>
-      <c r="C2">
-        <v>1978.99</v>
-      </c>
-      <c r="D2">
-        <v>-2813.85</v>
-      </c>
-      <c r="E2">
-        <v>953.35</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>118.49</v>
-      </c>
-      <c r="H2">
-        <v>2.25</v>
-      </c>
-      <c r="I2">
-        <v>120.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>3074.35</v>
-      </c>
-      <c r="C3">
-        <v>2344.42</v>
-      </c>
-      <c r="D3">
-        <v>-1464.97</v>
-      </c>
-      <c r="E3">
-        <v>-882.3</v>
-      </c>
-      <c r="F3">
-        <v>2.25</v>
-      </c>
-      <c r="G3">
-        <v>-5.1</v>
-      </c>
-      <c r="H3">
-        <v>176.27</v>
-      </c>
-      <c r="I3">
-        <v>171.17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>4170.68</v>
-      </c>
-      <c r="C4">
-        <v>3551.26</v>
-      </c>
-      <c r="D4">
-        <v>-2076.42</v>
-      </c>
-      <c r="E4">
-        <v>-1075.35</v>
-      </c>
-      <c r="F4">
-        <v>13.52</v>
-      </c>
-      <c r="G4">
-        <v>385.97</v>
-      </c>
-      <c r="H4">
-        <v>171.17</v>
-      </c>
-      <c r="I4">
-        <v>557.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>5003.86</v>
-      </c>
-      <c r="C5">
-        <v>3827.91</v>
-      </c>
-      <c r="D5">
-        <v>-2404.9</v>
-      </c>
-      <c r="E5">
-        <v>-1424.77</v>
-      </c>
-      <c r="F5">
-        <v>27.86</v>
-      </c>
-      <c r="G5">
-        <v>-29.62</v>
-      </c>
-      <c r="H5">
-        <v>557.14</v>
-      </c>
-      <c r="I5">
-        <v>527.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>5139.68</v>
-      </c>
-      <c r="C6">
-        <v>4874.12</v>
-      </c>
-      <c r="D6">
-        <v>-3162.22</v>
-      </c>
-      <c r="E6">
-        <v>-1588.25</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>123.65</v>
-      </c>
-      <c r="H6">
-        <v>417</v>
-      </c>
-      <c r="I6">
-        <v>540.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>6370.38</v>
-      </c>
-      <c r="C7">
-        <v>6264.74</v>
-      </c>
-      <c r="D7">
-        <v>-4556.64</v>
-      </c>
-      <c r="E7">
-        <v>-1969.65</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-261.55</v>
-      </c>
-      <c r="H7">
-        <v>554.83</v>
-      </c>
-      <c r="I7">
-        <v>293.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>8700.43</v>
-      </c>
-      <c r="C8">
-        <v>5719.88</v>
-      </c>
-      <c r="D8">
-        <v>-841.76</v>
-      </c>
-      <c r="E8">
-        <v>-4605.61</v>
-      </c>
-      <c r="F8">
-        <v>11.39</v>
-      </c>
-      <c r="G8">
-        <v>283.9</v>
-      </c>
-      <c r="H8">
-        <v>293.28</v>
-      </c>
-      <c r="I8">
-        <v>577.1799999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>13366.33</v>
-      </c>
-      <c r="C9">
-        <v>3174.63</v>
-      </c>
-      <c r="D9">
-        <v>433.36</v>
-      </c>
-      <c r="E9">
-        <v>-3897.22</v>
-      </c>
-      <c r="F9">
-        <v>31.02</v>
-      </c>
-      <c r="G9">
-        <v>-258.21</v>
-      </c>
-      <c r="H9">
-        <v>577.1799999999999</v>
-      </c>
-      <c r="I9">
-        <v>318.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>15703.18</v>
-      </c>
-      <c r="C10">
-        <v>9156.950000000001</v>
-      </c>
-      <c r="D10">
-        <v>-3482.98</v>
-      </c>
-      <c r="E10">
-        <v>-5655.8</v>
-      </c>
-      <c r="F10">
-        <v>-16.68</v>
-      </c>
-      <c r="G10">
-        <v>4.88</v>
-      </c>
-      <c r="H10">
-        <v>318.97</v>
-      </c>
-      <c r="I10">
-        <v>323.85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>23544.47</v>
-      </c>
-      <c r="C11">
-        <v>12941.93</v>
-      </c>
-      <c r="D11">
-        <v>-7189.32</v>
-      </c>
-      <c r="E11">
-        <v>-5684.32</v>
-      </c>
-      <c r="F11">
-        <v>43.66</v>
-      </c>
-      <c r="G11">
-        <v>114.52</v>
-      </c>
-      <c r="H11">
-        <v>323.85</v>
-      </c>
-      <c r="I11">
-        <v>438.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>24549.97</v>
-      </c>
-      <c r="C12">
-        <v>16319.89</v>
-      </c>
-      <c r="D12">
-        <v>611.01</v>
-      </c>
-      <c r="E12">
-        <v>-16914.2</v>
-      </c>
-      <c r="F12">
-        <v>-27.26</v>
-      </c>
-      <c r="G12">
-        <v>-8.59</v>
-      </c>
-      <c r="H12">
-        <v>438.37</v>
-      </c>
-      <c r="I12">
-        <v>429.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>29339</v>
-      </c>
-      <c r="C13">
-        <v>17986</v>
-      </c>
-      <c r="D13">
-        <v>-4518</v>
-      </c>
-      <c r="E13">
-        <v>-9586</v>
-      </c>
-      <c r="F13">
-        <v>40</v>
-      </c>
-      <c r="G13">
-        <v>3922</v>
-      </c>
-      <c r="H13">
-        <v>461</v>
-      </c>
-      <c r="I13">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>23653</v>
-      </c>
-      <c r="C14">
-        <v>23132</v>
-      </c>
-      <c r="D14">
-        <v>-15782</v>
-      </c>
-      <c r="E14">
-        <v>-10891</v>
-      </c>
-      <c r="F14">
-        <v>-52</v>
-      </c>
-      <c r="G14">
-        <v>-3593</v>
-      </c>
-      <c r="H14">
-        <v>4383</v>
-      </c>
-      <c r="I14">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>43559</v>
+      </c>
+      <c r="D21">
+        <v>39142</v>
+      </c>
+      <c r="E21">
+        <v>10807</v>
+      </c>
+      <c r="F21">
+        <v>-47793</v>
+      </c>
+      <c r="G21">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>25241</v>
-      </c>
-      <c r="C15">
-        <v>21587</v>
-      </c>
-      <c r="D15">
-        <v>5634</v>
-      </c>
-      <c r="E15">
-        <v>-26827</v>
-      </c>
-      <c r="F15">
-        <v>94</v>
-      </c>
-      <c r="G15">
-        <v>488</v>
-      </c>
-      <c r="H15">
-        <v>790</v>
-      </c>
-      <c r="I15">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>30065</v>
-      </c>
-      <c r="C16">
-        <v>23998</v>
-      </c>
-      <c r="D16">
-        <v>5883</v>
-      </c>
-      <c r="E16">
-        <v>-27825</v>
-      </c>
-      <c r="F16">
-        <v>-7</v>
-      </c>
-      <c r="G16">
-        <v>2049</v>
-      </c>
-      <c r="H16">
-        <v>1278</v>
-      </c>
-      <c r="I16">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>33260</v>
-      </c>
-      <c r="C17">
-        <v>26603</v>
-      </c>
-      <c r="D17">
-        <v>12829</v>
-      </c>
-      <c r="E17">
-        <v>-39045</v>
-      </c>
-      <c r="F17">
-        <v>138</v>
-      </c>
-      <c r="G17">
-        <v>525</v>
-      </c>
-      <c r="H17">
-        <v>3327</v>
-      </c>
-      <c r="I17">
-        <v>3852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>30960</v>
-      </c>
-      <c r="C18">
-        <v>33822</v>
-      </c>
-      <c r="D18">
-        <v>-4576</v>
-      </c>
-      <c r="E18">
-        <v>-32023</v>
-      </c>
-      <c r="F18">
-        <v>37</v>
-      </c>
-      <c r="G18">
-        <v>-2740</v>
-      </c>
-      <c r="H18">
-        <v>3852</v>
-      </c>
-      <c r="I18">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>38187</v>
-      </c>
-      <c r="C19">
-        <v>36127</v>
-      </c>
-      <c r="D19">
-        <v>3642</v>
-      </c>
-      <c r="E19">
-        <v>-32797</v>
-      </c>
-      <c r="F19">
-        <v>113</v>
-      </c>
-      <c r="G19">
-        <v>7085</v>
-      </c>
-      <c r="H19">
-        <v>1112</v>
-      </c>
-      <c r="I19">
-        <v>8197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>39106</v>
-      </c>
-      <c r="C20">
-        <v>37029</v>
-      </c>
-      <c r="D20">
-        <v>3250</v>
-      </c>
-      <c r="E20">
-        <v>-47224</v>
-      </c>
-      <c r="F20">
-        <v>210</v>
-      </c>
-      <c r="G20">
-        <v>-6735</v>
-      </c>
-      <c r="H20">
-        <v>8197</v>
-      </c>
-      <c r="I20">
+      <c r="H21">
+        <v>2182</v>
+      </c>
+      <c r="I21">
         <v>1462</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>43559</v>
-      </c>
-      <c r="C21">
-        <v>39142</v>
-      </c>
-      <c r="D21">
-        <v>10807</v>
-      </c>
-      <c r="E21">
-        <v>-47793</v>
-      </c>
-      <c r="F21">
-        <v>26</v>
-      </c>
-      <c r="G21">
-        <v>2182</v>
-      </c>
-      <c r="H21">
-        <v>1462</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>3644</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>8051.1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>8051.1</v>
@@ -2328,454 +2421,472 @@
         <v>8051.1</v>
       </c>
       <c r="E2">
+        <v>8051.1</v>
+      </c>
+      <c r="F2">
         <v>43.82</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8094.92</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>487.18</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3967.52</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10.4</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>133.22</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1143.36</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>5786.27</v>
-      </c>
-      <c r="M2">
-        <v>2308.65</v>
       </c>
       <c r="N2">
         <v>2308.65</v>
       </c>
       <c r="O2">
+        <v>2308.65</v>
+      </c>
+      <c r="P2">
         <v>241</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>39.76</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>280.76</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2027.89</v>
-      </c>
-      <c r="S2">
-        <v>1831.42</v>
       </c>
       <c r="T2">
         <v>1831.42</v>
       </c>
       <c r="U2">
-        <v>38.15</v>
+        <v>1831.42</v>
       </c>
       <c r="V2">
         <v>38.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>11236.01</v>
-      </c>
-      <c r="C3">
-        <v>11230.5</v>
       </c>
       <c r="D3">
         <v>11230.5</v>
       </c>
       <c r="E3">
+        <v>11230.5</v>
+      </c>
+      <c r="F3">
         <v>-1.19</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>11229.31</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>793.01</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5113.96</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4.49</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>257.38</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1761.91</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8154.96</v>
-      </c>
-      <c r="M3">
-        <v>3074.35</v>
       </c>
       <c r="N3">
         <v>3074.35</v>
       </c>
       <c r="O3">
+        <v>3074.35</v>
+      </c>
+      <c r="P3">
         <v>284.38</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14.82</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>319.45</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2754.9</v>
-      </c>
-      <c r="S3">
-        <v>2716.87</v>
       </c>
       <c r="T3">
         <v>2716.87</v>
       </c>
       <c r="U3">
-        <v>55.53</v>
+        <v>2716.87</v>
       </c>
       <c r="V3">
         <v>55.53</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>14942.09</v>
-      </c>
-      <c r="C4">
-        <v>14939.97</v>
       </c>
       <c r="D4">
         <v>14939.97</v>
       </c>
       <c r="E4">
+        <v>14939.97</v>
+      </c>
+      <c r="F4">
         <v>216.04</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15156.01</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3095.82</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6186.85</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3.43</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>343.41</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1237.12</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10985.33</v>
-      </c>
-      <c r="M4">
-        <v>4170.68</v>
       </c>
       <c r="N4">
         <v>4170.68</v>
       </c>
       <c r="O4">
+        <v>4170.68</v>
+      </c>
+      <c r="P4">
         <v>404.25</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-11.2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>410.8</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3759.88</v>
-      </c>
-      <c r="S4">
-        <v>3757.29</v>
       </c>
       <c r="T4">
         <v>3757.29</v>
       </c>
       <c r="U4">
-        <v>38.39</v>
+        <v>3757.29</v>
       </c>
       <c r="V4">
         <v>38.39</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>38.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>18536.55</v>
-      </c>
-      <c r="C5">
-        <v>18533.72</v>
       </c>
       <c r="D5">
         <v>18533.72</v>
       </c>
       <c r="E5">
+        <v>18533.72</v>
+      </c>
+      <c r="F5">
         <v>440.45</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>18974.17</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5687.82</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6015.19</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3.42</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>458.78</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1623.68</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13970.31</v>
-      </c>
-      <c r="M5">
-        <v>5003.86</v>
       </c>
       <c r="N5">
         <v>5003.86</v>
       </c>
       <c r="O5">
+        <v>5003.86</v>
+      </c>
+      <c r="P5">
         <v>402.95</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>29.98</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>457.58</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4546.28</v>
-      </c>
-      <c r="S5">
-        <v>4508.76</v>
       </c>
       <c r="T5">
         <v>4508.76</v>
       </c>
       <c r="U5">
-        <v>46.07</v>
+        <v>4508.76</v>
       </c>
       <c r="V5">
         <v>46.07</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>46.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>22404</v>
-      </c>
-      <c r="C6">
-        <v>22401.92</v>
       </c>
       <c r="D6">
         <v>22401.92</v>
       </c>
       <c r="E6">
+        <v>22401.92</v>
+      </c>
+      <c r="F6">
         <v>-456.24</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>21945.68</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6947.6</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7370.09</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7.44</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>417.46</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1847.12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16805.99</v>
-      </c>
-      <c r="M6">
-        <v>5139.69</v>
       </c>
       <c r="N6">
         <v>5139.69</v>
       </c>
       <c r="O6">
+        <v>5139.69</v>
+      </c>
+      <c r="P6">
         <v>272.48</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>44.89</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>340.37</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4799.32</v>
-      </c>
-      <c r="S6">
-        <v>4696.21</v>
       </c>
       <c r="T6">
         <v>4696.21</v>
       </c>
       <c r="U6">
-        <v>47.99</v>
+        <v>4696.21</v>
       </c>
       <c r="V6">
         <v>47.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>47.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>23044.84</v>
-      </c>
-      <c r="C7">
-        <v>23044.45</v>
       </c>
       <c r="D7">
         <v>23044.45</v>
       </c>
       <c r="E7">
+        <v>23044.45</v>
+      </c>
+      <c r="F7">
         <v>182.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>23226.55</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6446.99</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7882.43</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9.539999999999999</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>469.35</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1839.11</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16856.17</v>
-      </c>
-      <c r="M7">
-        <v>6370.38</v>
       </c>
       <c r="N7">
         <v>6370.38</v>
       </c>
       <c r="O7">
+        <v>6370.38</v>
+      </c>
+      <c r="P7">
         <v>850.3200000000001</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-112.43</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>737.89</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5632.49</v>
-      </c>
-      <c r="S7">
-        <v>5618.51</v>
       </c>
       <c r="T7">
         <v>5618.51</v>
       </c>
       <c r="U7">
-        <v>28.71</v>
+        <v>5618.51</v>
       </c>
       <c r="V7">
         <v>28.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>28.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>29275.68</v>
-      </c>
-      <c r="C8">
-        <v>29275.41</v>
       </c>
       <c r="D8">
         <v>29275.41</v>
       </c>
       <c r="E8">
+        <v>29275.41</v>
+      </c>
+      <c r="F8">
         <v>494.73</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>29770.14</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>8104.03</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10221.85</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20.01</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>537.8200000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2167.42</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>21069.71</v>
-      </c>
-      <c r="M8">
-        <v>8700.43</v>
       </c>
       <c r="N8">
         <v>8700.43</v>
       </c>
       <c r="O8">
+        <v>8700.43</v>
+      </c>
+      <c r="P8">
         <v>1335.73</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>30.32</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1130.44</v>
-      </c>
-      <c r="R8">
-        <v>7569.99</v>
       </c>
       <c r="S8">
         <v>7569.99</v>
@@ -2784,66 +2895,69 @@
         <v>7569.99</v>
       </c>
       <c r="U8">
-        <v>38.61</v>
+        <v>7569.99</v>
       </c>
       <c r="V8">
         <v>38.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>38.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>38858.79</v>
-      </c>
-      <c r="C9">
-        <v>38858.54</v>
       </c>
       <c r="D9">
         <v>38858.54</v>
       </c>
       <c r="E9">
+        <v>38858.54</v>
+      </c>
+      <c r="F9">
         <v>2685.18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>41543.72</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10575.83</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>14100.41</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>16.4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>688.17</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2784.54</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>28177.39</v>
-      </c>
-      <c r="M9">
-        <v>13366.33</v>
       </c>
       <c r="N9">
         <v>13366.33</v>
       </c>
       <c r="O9">
+        <v>13366.33</v>
+      </c>
+      <c r="P9">
         <v>2865.38</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-38.93</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2390.35</v>
-      </c>
-      <c r="R9">
-        <v>10975.98</v>
       </c>
       <c r="S9">
         <v>10975.98</v>
@@ -2852,66 +2966,69 @@
         <v>10975.98</v>
       </c>
       <c r="U9">
-        <v>55.95</v>
+        <v>10975.98</v>
       </c>
       <c r="V9">
         <v>55.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>55.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>48426.96</v>
-      </c>
-      <c r="C10">
-        <v>48426.14</v>
       </c>
       <c r="D10">
         <v>48426.14</v>
       </c>
       <c r="E10">
+        <v>48426.14</v>
+      </c>
+      <c r="F10">
         <v>2230.39</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>50656.53</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13360.51</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>17081.72</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>30.62</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>802.86</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3652.62</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>34953.35</v>
-      </c>
-      <c r="M10">
-        <v>15703.18</v>
       </c>
       <c r="N10">
         <v>15703.18</v>
       </c>
       <c r="O10">
+        <v>15703.18</v>
+      </c>
+      <c r="P10">
         <v>3158.28</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>44.02</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2916.84</v>
-      </c>
-      <c r="R10">
-        <v>12786.34</v>
       </c>
       <c r="S10">
         <v>12786.34</v>
@@ -2920,66 +3037,69 @@
         <v>12786.34</v>
       </c>
       <c r="U10">
-        <v>65.22</v>
+        <v>12786.34</v>
       </c>
       <c r="V10">
         <v>65.22</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>65.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>64676.08</v>
-      </c>
-      <c r="C11">
-        <v>64672.93</v>
       </c>
       <c r="D11">
         <v>64672.93</v>
       </c>
       <c r="E11">
+        <v>64672.93</v>
+      </c>
+      <c r="F11">
         <v>3114.71</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>67787.64</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>16950.73</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>21466.56</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>23.41</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1080.55</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4682.22</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>44243.17</v>
-      </c>
-      <c r="M11">
-        <v>23544.47</v>
       </c>
       <c r="N11">
         <v>23544.47</v>
       </c>
       <c r="O11">
+        <v>23544.47</v>
+      </c>
+      <c r="P11">
         <v>4662.41</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-22.18</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5069.55</v>
-      </c>
-      <c r="R11">
-        <v>18474.92</v>
       </c>
       <c r="S11">
         <v>18474.92</v>
@@ -2988,66 +3108,69 @@
         <v>18474.92</v>
       </c>
       <c r="U11">
-        <v>94.15000000000001</v>
+        <v>18474.92</v>
       </c>
       <c r="V11">
         <v>94.15000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>94.15000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>73582.14999999999</v>
-      </c>
-      <c r="C12">
-        <v>73578.06</v>
       </c>
       <c r="D12">
         <v>73578.06</v>
       </c>
       <c r="E12">
+        <v>73578.06</v>
+      </c>
+      <c r="F12">
         <v>4466.73</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>78044.78999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19796.4</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>27368.32</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>79.56999999999999</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1393.77</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5320.37</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>54023.2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>24021.59</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>24549.97</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>5208.15</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>14.7</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5293.01</v>
-      </c>
-      <c r="R12">
-        <v>19256.96</v>
       </c>
       <c r="S12">
         <v>19256.96</v>
@@ -3056,18 +3179,21 @@
         <v>19256.96</v>
       </c>
       <c r="U12">
-        <v>98.31</v>
+        <v>19256.96</v>
       </c>
       <c r="V12">
         <v>98.31</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>98.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>85864</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>85864</v>
@@ -3076,46 +3202,46 @@
         <v>85864</v>
       </c>
       <c r="E13">
+        <v>85864</v>
+      </c>
+      <c r="F13">
         <v>3757</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>89621</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>42420</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1459</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>16390</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>60282</v>
-      </c>
-      <c r="M13">
-        <v>29339</v>
       </c>
       <c r="N13">
         <v>29339</v>
       </c>
       <c r="O13">
+        <v>29339</v>
+      </c>
+      <c r="P13">
         <v>6376</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-112</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>6264</v>
-      </c>
-      <c r="R13">
-        <v>23075</v>
       </c>
       <c r="S13">
         <v>23075</v>
@@ -3124,18 +3250,21 @@
         <v>23075</v>
       </c>
       <c r="U13">
-        <v>117.11</v>
+        <v>23075</v>
       </c>
       <c r="V13">
         <v>117.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>117.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>92693</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>92693</v>
@@ -3144,46 +3273,46 @@
         <v>92693</v>
       </c>
       <c r="E14">
+        <v>92693</v>
+      </c>
+      <c r="F14">
         <v>4568</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>97261</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1664</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>48116</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>16</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1575</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>15730</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>67195</v>
-      </c>
-      <c r="M14">
-        <v>30066</v>
       </c>
       <c r="N14">
         <v>30066</v>
       </c>
       <c r="O14">
+        <v>30066</v>
+      </c>
+      <c r="P14">
         <v>6643</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-230</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>6413</v>
-      </c>
-      <c r="R14">
-        <v>23653</v>
       </c>
       <c r="S14">
         <v>23653</v>
@@ -3192,18 +3321,21 @@
         <v>23653</v>
       </c>
       <c r="U14">
-        <v>120.04</v>
+        <v>23653</v>
       </c>
       <c r="V14">
         <v>120.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>120.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>97356</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>97356</v>
@@ -3212,46 +3344,46 @@
         <v>97356</v>
       </c>
       <c r="E15">
+        <v>97356</v>
+      </c>
+      <c r="F15">
         <v>5803</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>103159</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1920</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>51499</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>30</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1647</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16046</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>71228</v>
-      </c>
-      <c r="M15">
-        <v>31931</v>
       </c>
       <c r="N15">
         <v>31931</v>
       </c>
       <c r="O15">
+        <v>31931</v>
+      </c>
+      <c r="P15">
         <v>6878</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-188</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>6690</v>
-      </c>
-      <c r="R15">
-        <v>25241</v>
       </c>
       <c r="S15">
         <v>25241</v>
@@ -3260,18 +3392,21 @@
         <v>25241</v>
       </c>
       <c r="U15">
-        <v>131.15</v>
+        <v>25241</v>
       </c>
       <c r="V15">
         <v>131.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>131.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>123170</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>123170</v>
@@ -3280,46 +3415,46 @@
         <v>123170</v>
       </c>
       <c r="E16">
+        <v>123170</v>
+      </c>
+      <c r="F16">
         <v>7627</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>130797</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2003</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>59377</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>170</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1716</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>26826</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>90092</v>
-      </c>
-      <c r="M16">
-        <v>40705</v>
       </c>
       <c r="N16">
         <v>40705</v>
       </c>
       <c r="O16">
+        <v>40705</v>
+      </c>
+      <c r="P16">
         <v>9943</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>697</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10640</v>
-      </c>
-      <c r="R16">
-        <v>30065</v>
       </c>
       <c r="S16">
         <v>30065</v>
@@ -3328,18 +3463,21 @@
         <v>30065</v>
       </c>
       <c r="U16">
-        <v>79.34</v>
+        <v>30065</v>
       </c>
       <c r="V16">
         <v>79.34</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>79.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>131306</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>131306</v>
@@ -3348,46 +3486,46 @@
         <v>131306</v>
       </c>
       <c r="E17">
+        <v>131306</v>
+      </c>
+      <c r="F17">
         <v>8082</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>139388</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1596</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>64906</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>743</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2701</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>27451</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>97397</v>
-      </c>
-      <c r="M17">
-        <v>41991</v>
       </c>
       <c r="N17">
         <v>41991</v>
       </c>
       <c r="O17">
+        <v>41991</v>
+      </c>
+      <c r="P17">
         <v>9012</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-281</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>8731</v>
-      </c>
-      <c r="R17">
-        <v>33260</v>
       </c>
       <c r="S17">
         <v>33260</v>
@@ -3396,18 +3534,21 @@
         <v>33260</v>
       </c>
       <c r="U17">
-        <v>88.64</v>
+        <v>33260</v>
       </c>
       <c r="V17">
         <v>88.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>88.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>135963</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>135963</v>
@@ -3416,46 +3557,46 @@
         <v>135963</v>
       </c>
       <c r="E18">
+        <v>135963</v>
+      </c>
+      <c r="F18">
         <v>5400</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>141363</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1230</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>69046</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>537</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3053</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>25377</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>99243</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>42120</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>40902</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>10300</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-358</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>9942</v>
-      </c>
-      <c r="R18">
-        <v>30960</v>
       </c>
       <c r="S18">
         <v>30960</v>
@@ -3464,18 +3605,21 @@
         <v>30960</v>
       </c>
       <c r="U18">
-        <v>82.78</v>
+        <v>30960</v>
       </c>
       <c r="V18">
         <v>82.78</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>160341</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>160341</v>
@@ -3484,46 +3628,46 @@
         <v>160341</v>
       </c>
       <c r="E19">
+        <v>160341</v>
+      </c>
+      <c r="F19">
         <v>7486</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>167827</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1010</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>81097</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>486</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3522</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>31989</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>118104</v>
-      </c>
-      <c r="M19">
-        <v>49723</v>
       </c>
       <c r="N19">
         <v>49723</v>
       </c>
       <c r="O19">
+        <v>49723</v>
+      </c>
+      <c r="P19">
         <v>11931</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-395</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>11536</v>
-      </c>
-      <c r="R19">
-        <v>38187</v>
       </c>
       <c r="S19">
         <v>38187</v>
@@ -3532,18 +3676,21 @@
         <v>38187</v>
       </c>
       <c r="U19">
-        <v>103.24</v>
+        <v>38187</v>
       </c>
       <c r="V19">
         <v>103.24</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>103.24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>190354</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>190354</v>
@@ -3552,46 +3699,46 @@
         <v>190354</v>
       </c>
       <c r="E20">
+        <v>190354</v>
+      </c>
+      <c r="F20">
         <v>5328</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>195682</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1416</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>96218</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>695</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3940</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>41723</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>143992</v>
-      </c>
-      <c r="M20">
-        <v>51690</v>
       </c>
       <c r="N20">
         <v>51690</v>
       </c>
       <c r="O20">
+        <v>51690</v>
+      </c>
+      <c r="P20">
         <v>12946</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-362</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>12584</v>
-      </c>
-      <c r="R20">
-        <v>39106</v>
       </c>
       <c r="S20">
         <v>39106</v>
@@ -3600,18 +3747,21 @@
         <v>39106</v>
       </c>
       <c r="U20">
-        <v>106.88</v>
+        <v>39106</v>
       </c>
       <c r="V20">
         <v>106.88</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>106.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>202359</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>202359</v>
@@ -3620,46 +3770,46 @@
         <v>202359</v>
       </c>
       <c r="E21">
+        <v>202359</v>
+      </c>
+      <c r="F21">
         <v>7273</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>209632</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>3347</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>103139</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>673</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3887</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>40026</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>151072</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>58560</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>57602</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>14178</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-135</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>14043</v>
-      </c>
-      <c r="R21">
-        <v>43559</v>
       </c>
       <c r="S21">
         <v>43559</v>
@@ -3668,9 +3818,12 @@
         <v>43559</v>
       </c>
       <c r="U21">
+        <v>43559</v>
+      </c>
+      <c r="V21">
         <v>119.44</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>119.44</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>16692.65</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>16893.91</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>17438.43</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>18405.05</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>18936.35</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>18798.23</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>20349</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>21636</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>21621</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>22258</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>23087</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>23016</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>23184</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>23406</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>23476</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>24032</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>24278</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>25570</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>29368</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>30792</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>30964</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>32046</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>32657</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>32387</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>33040</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>33222</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>31624</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>33365</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>34957</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>36017</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>37722</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>39315</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>40845</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>42459</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>44480</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>46819</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>49275</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>49780</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>49862</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>50165</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>50844</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>51488</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>52844</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>53990</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>53883</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>167.7</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>51.08</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>48.3</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>48.09</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>38.15</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>30.45</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>28.8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>28.67</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>22.74</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>55.14</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>38.53</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.04</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30.14</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>28.1</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>69.86</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>68786.33</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>28.05</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>229.52</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>68.18000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>62.92</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>62.83</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>55.53</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>29.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>27.41</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>27.37</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>24.19</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48.43</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>36.59</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.01</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>24.31</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>22.2</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>75.69</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>93523.69</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>28.03</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>152.67</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>46.16</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>42.65</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>42.62</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>38.39</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30.23</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>27.93</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>27.91</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>25.14</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>46.62</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>34.9</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.01</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>29.95</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>27.44</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>70.05</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>119978.83</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>26.56</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>189.39</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>55.86</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>51.17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>51.13</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>46.07</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29.49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>27.01</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>26.99</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>24.32</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>41.34</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>30.59</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>30.38</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>27.58</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>69.62</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>78945.39999999999</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>14.44</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>228.92</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>56.86</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>52.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>52.52</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>47.99</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>24.83</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>22.97</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>22.94</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20.96</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>35.18</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25.32</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>29.17</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>26.79</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>70.83</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>51379.51</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9.23</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>117.74</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>32.6</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32.55</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>28.71</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.72</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>27.68</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>27.64</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>24.38</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>37.41</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>25.04</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>69.67</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>64.29000000000001</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>30.33</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>149557.76</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>21.84</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>149.58</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>47.3</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>44.56</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>44.45</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>38.68</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>31.62</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>29.78</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>29.71</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25.85</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>38.86</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>29.06</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>36.19</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>33.79</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>63.81</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>228454.71</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>24.68</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>198.54</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>71.89</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>68.38</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>68.29000000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>56.08</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>36.21</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>34.43</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>34.39</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28.24</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>44.33</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>32.03</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>44.57</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>41.94</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>55.43</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>225487.76</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>16.03</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>247.43</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>84.48999999999999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>80.39</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>80.23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>65.33</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>34.14</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>32.49</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>32.42</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>26.4</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>39.38</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>29.72</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.01</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>33.67</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>31.68</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>66.33</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>303841.66</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>18.37</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>330.18</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>125.84</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>120.32</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>120.2</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>94.31999999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>38.11</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>36.44</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>36.4</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>28.56</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>41.93</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>32.07</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>33.92</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>32.04</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>66.08</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>404383.76</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>16.41</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>375.65</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>130.16</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>123.05</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>125.34</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>98.31999999999999</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>34.65</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>32.75</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>33.36</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>26.17</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>42.4</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>30.53</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.01</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>80.34999999999999</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>74.93000000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>19.65</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>482638.45</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>18.93</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>435.86</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>156.4</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>148.99</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>148.93</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>117.13</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>35.88</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>34.18</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>34.16</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>26.87</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>35.49</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>29.8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>34.63</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>32.57</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>65.37</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>491018.85</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>15.94</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>470.52</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>160.7</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>152.7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>152.62</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>120.07</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>34.15</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>32.45</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>32.43</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>25.51</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>30.31</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>26.35</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>38.73</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>36.31</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>61.27</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>477854.7</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>15.09</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>509.72</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>175.96</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>167.34</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>167.18</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>132.15</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>34.52</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>32.82</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>32.79</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>25.92</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>33.27</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>27.72</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>36.78</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>34.52</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>63.22</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>540949.3</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>16.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>328.45</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>113.58</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>109</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>108.55</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>80.17</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>34.57</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>33.18</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>33.04</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>24.4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>38.1</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>30.21</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>33.54</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>31.73</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>66.45999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>741250</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>17.4</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>350.15</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>121.16</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>113.96</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>111.98</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>88.69</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>34.6</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>32.54</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>31.97</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>25.33</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>44.72</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>31.68</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>95.89</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>88.69</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>4.11</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>678819.75</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>14.94</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>367.47</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>123.54</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>115.29</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>110.55</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>83.68000000000001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>33.61</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>31.37</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>30.08</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>22.77</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>41.39</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>28.3</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>35.04</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>31.89</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>64.95999999999999</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1172570</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>25.65</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>438.09</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>146.81</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>137.18</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>135.86</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>104.34</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>33.51</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>31.31</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>31.01</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>23.81</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>49.48</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>31.49</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>34.87</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>31.92</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>65.13</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1354708.8</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>25.21</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>520.09</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>153.89</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>143.13</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>141.23</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>106.85</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>29.58</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>27.51</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>27.15</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>20.54</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>52.46</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>32.63</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>105.73</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>96.05</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-5.73</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1168779.8</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>20.75</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>559</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>174.36</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>163.63</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>159.12</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>120.33</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>31.19</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>29.27</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>28.46</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>21.52</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>60.39</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>35.95</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>57.7</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>52.98</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>42.3</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1399246.1</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>22.17</v>
       </c>
     </row>
